--- a/Documentation - Integration with File Upload Interface/README.xlsx
+++ b/Documentation - Integration with File Upload Interface/README.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Documents\GitHub\universal-data-tool\Documentation - Integration with File Upload Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F5D879-542E-4DF9-A919-886A3B783FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1025CB-B7E6-4168-8CE5-E851AD4E0D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1956549F-3480-49BB-A4CF-8A59432A11DE}"/>
+    <workbookView minimized="1" xWindow="23490" yWindow="2610" windowWidth="15375" windowHeight="7995" xr2:uid="{1956549F-3480-49BB-A4CF-8A59432A11DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal Data Tool" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>File</t>
   </si>
@@ -1434,228 +1434,279 @@
     </r>
   </si>
   <si>
-    <t>.content (V)
+    <t>components/ImageClassification/index.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sends a post request to the backend server at </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interfaceWithUDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the content of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jsonObjLabels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to update the respective record on MongoDB. Called from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onNext()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sendLabelsToMongo()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> described previously; however, when the user allows multiple classification. Called from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onClickLabel().</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>checkIfAlreadyLabeledOnMongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (F)
+Inputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">idx, returnParamFor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Return: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(true, false) or ("complete", "incomplete") depending on the value of the second input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>assignLabelsFromMongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (F)
+Inputs: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sample.imageUrl, labels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Return: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(array)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentLabelsOnMongo</t>
+    </r>
+  </si>
+  <si>
+    <t>components/RawJSONEditor</t>
+  </si>
+  <si>
+    <t>It is a JSON object loaded from the file UserPreConfiguration.json, which contains the configuration for the Image Classification UDT interface. By reading this file, there's no need for the user use UDT to configure the interface.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userPreConfiguration (V)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                           
+Type: object                                                                               Written at: hard-coded
+Read at: onSave() function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.content (V)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Type: object
 Written at: -- components/SamplesView/index.js
 -- components/ImageClassification/index.js
 Read at: -- components/ImageClassification/index.js
 -- components/ImageClassification/index.js</t>
-  </si>
-  <si>
-    <t>components/ImageClassification/index.js</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sends a post request to the backend server at </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interfaceWithUDT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with the content of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jsonObjLabels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to update the respective record on MongoDB. Called from </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onNext()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Same as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sendLabelsToMongo()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> described previously; however, when the user allows multiple classification. Called from </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onClickLabel().</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>checkIfAlreadyLabeledOnMongo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (F)
-Inputs: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">idx, returnParamFor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Return: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(true, false) or ("complete", "incomplete") depending on the value of the second input</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>assignLabelsFromMongo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (F)
-Inputs: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sample.imageUrl, labels
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Return: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(array)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>currentLabelsOnMongo</t>
     </r>
   </si>
 </sst>
@@ -1702,7 +1753,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1719,11 +1770,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1741,6 +1803,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,12 +1848,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72FDA044-663A-432C-8968-ED556572CA5C}" name="Table2" displayName="Table2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:C23" xr:uid="{F4651FC5-DAF5-4181-97F8-39BCF344F28D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72FDA044-663A-432C-8968-ED556572CA5C}" name="Table2" displayName="Table2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C24" xr:uid="{F4651FC5-DAF5-4181-97F8-39BCF344F28D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C0F71621-7EA9-4E21-811F-FD540F71C19D}" name="File" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{DF8C0331-DBC5-47C5-86EB-F702AC60BF09}" name="Variable/Function" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{86407A75-DEA3-4B4E-9A27-7788D0715521}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C0F71621-7EA9-4E21-811F-FD540F71C19D}" name="File" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DF8C0331-DBC5-47C5-86EB-F702AC60BF09}" name="Variable/Function" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{86407A75-DEA3-4B4E-9A27-7788D0715521}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2085,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E9E38-7AFD-46D0-95C4-0F5AD2BCC68F}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -2244,7 +2315,7 @@
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -2255,7 +2326,7 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -2266,10 +2337,10 @@
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
@@ -2277,7 +2348,7 @@
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -2288,7 +2359,7 @@
     </row>
     <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -2299,18 +2370,18 @@
     </row>
     <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
@@ -2321,7 +2392,7 @@
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
@@ -2332,21 +2403,33 @@
     </row>
     <row r="22" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C23" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
+    <row r="24" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
